--- a/dirtied.xlsx
+++ b/dirtied.xlsx
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -598,7 +598,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -625,16 +625,16 @@
         <v>229</v>
       </c>
       <c r="H3" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>28, 32, 35</t>
+          <t>27, 30, 34, 37</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -668,13 +668,13 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>40GS_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -701,16 +701,16 @@
         <v>229</v>
       </c>
       <c r="H4" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>29, 33, 36</t>
+          <t>27, 30, 34, 37</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -750,7 +750,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -782,15 +782,15 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>29, 33, 36</t>
+          <t>27, 30, 34, 37</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -826,7 +826,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -902,7 +902,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -929,20 +929,20 @@
         <v>229</v>
       </c>
       <c r="H7" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>28, 32, 35</t>
+          <t>27, 30, 34, 37</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -972,13 +972,13 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1005,16 +1005,16 @@
         <v>229</v>
       </c>
       <c r="H8" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>27, 30, 34, 37</t>
+          <t>28, 32, 35</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1048,13 +1048,13 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre B</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,12 +1081,12 @@
         <v>229</v>
       </c>
       <c r="H9" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>29, 33, 36</t>
+          <t>28, 32, 35</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre B</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1233,12 +1233,12 @@
         <v>229</v>
       </c>
       <c r="H11" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>29, 33, 36</t>
+          <t>28, 32, 35</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1282,7 +1282,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/03</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,7 +1309,7 @@
         <v>229</v>
       </c>
       <c r="H12" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
@@ -1352,13 +1352,13 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>40GS_Lecture Theatre C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1385,12 +1385,12 @@
         <v>229</v>
       </c>
       <c r="H13" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>29, 33, 36</t>
+          <t>28, 32, 35</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1434,7 +1434,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1461,20 +1461,20 @@
         <v>229</v>
       </c>
       <c r="H14" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>27, 30, 34, 37</t>
+          <t>29, 33, 36</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1504,13 +1504,13 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>GALT_ Gordon Aikman Lecture Theatre</t>
+          <t>40GS_Lecture Theatre B</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28, 32, 35</t>
+          <t>29, 33, 36</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1613,20 +1613,20 @@
         <v>229</v>
       </c>
       <c r="H16" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>27, 30, 34, 37</t>
+          <t>29, 33, 36</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1656,13 +1656,13 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>229</v>
       </c>
       <c r="H17" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
@@ -1732,13 +1732,13 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>40GS_Lecture Theatre C</t>
+          <t>GALT_ Gordon Aikman Lecture Theatre</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MATH1 Calculus and Its Appl - Lecture/02</t>
+          <t>MATH1 Calculus and Its Appl - Lecture/01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1770,7 +1770,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>28, 32, 35</t>
+          <t>29, 33, 36</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1846,15 +1846,15 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>27, 30, 34, 37</t>
+          <t>29, 33, 36</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1890,67 +1890,67 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Facets of Mathematics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08068</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Lecture</t>
+          <t>MATH2 Facets of Maths - Poster Presentation</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="H20" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>26-28, 34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1960,65 +1960,65 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>JCMB_1206c - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Credit Scoring</t>
+          <t>Facets of Mathematics</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATH11148</t>
+          <t>MATH08068</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MATHO Credit Scoring - Lecture</t>
+          <t>MATH2 Facets of Maths - Poster Presentation</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="H21" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>26-29, 33-34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>02:00</t>
@@ -2026,183 +2026,175 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>JCMB_Lecture Theatre A</t>
+          <t>MH_G.09 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Facets of Mathematics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08068</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
+          <t>MATH2 Facets of Maths - Poster Presentation</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="H22" t="n">
-        <v>13</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>40GS_13.07</t>
+          <t>JCMB_3217 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Engineering Mathematics 1a</t>
+          <t>Facets of Mathematics</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATH08074</t>
+          <t>MATH08068</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
+          <t>MATH2 Facets of Maths - Poster Presentation</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>*Central</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>AT_2.05</t>
+          <t>MH_G.09 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2226,10 +2218,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2276,180 +2268,188 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CMB_Seminar Room 5</t>
+          <t>40GS_13.07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Facets of Mathematics</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MATH08068</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MATH2 Facets of Maths - Poster Presentation</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>275</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9-19</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>AT_2.05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Facets of Mathematics</t>
+          <t>Engineering Mathematics 1a</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATH08068</t>
+          <t>MATH08074</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MATH2 Facets of Maths - Poster Presentation</t>
+          <t>MATH1 Engineering Mathematics 1a - Lecture/overflow</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="H26" t="n">
-        <v>275</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>* SEM 1</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9-19</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>*Central</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>MH_G.09 - Teaching Studio</t>
+          <t>CMB_Seminar Room 5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>319</v>
+        <v>814</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Facets of Mathematics</t>
+          <t>Mathematical Education</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATH08068</t>
+          <t>MATH10010</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MATH2 Facets of Maths - Poster Presentation</t>
+          <t>MATH4 Maths Education - Workshop/03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2458,43 +2458,43 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26, 28-29</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2504,28 +2504,28 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>JCMB_1206c - Teaching Studio</t>
+          <t>JCMB_3211 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>320</v>
+        <v>815</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Facets of Mathematics</t>
+          <t>Mathematical Education</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MATH08068</t>
+          <t>MATH10010</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MATH2 Facets of Maths - Poster Presentation</t>
+          <t>MATH4 Maths Education - Workshop/04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2534,53 +2534,53 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26, 28-29</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>MH_G.09 - Teaching Studio</t>
+          <t>JCMB_3211 - Teaching Studio</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2841,16 +2841,16 @@
         <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>26, 28-29</t>
+          <t>9-16</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2890,7 +2890,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>15</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>26, 28-29</t>
+          <t>9-16</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2966,7 +2966,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2981,19 +2981,19 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MATH4 Maths Education - Workshop/01</t>
+          <t>MATH4 Maths Education - Lecture</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -3011,22 +3011,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3036,13 +3036,13 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>JCMB_3211 - Teaching Studio</t>
+          <t>JCMB_1501</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MATH4 Maths Education - Workshop/02</t>
+          <t>MATH4 Maths Education - Workshop/01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3069,7 +3069,7 @@
         <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>15:00</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>16:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3118,7 +3118,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MATH4 Maths Education - Workshop/03</t>
+          <t>MATH4 Maths Education - Workshop/02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3158,17 +3158,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3194,22 +3194,22 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>819</v>
+        <v>968</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mathematical Education</t>
+          <t>Probability, Measure &amp; Finance</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MATH10010</t>
+          <t>MATH10024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MATH4 Maths Education - Workshop/04</t>
+          <t>MATH4 Probability, Measure &amp; Finance - Workshop</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3218,19 +3218,23 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>* SEM 1 - Even weeks only</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>9-16</t>
+          <t>10, 12, 14, 16, 18</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3239,12 +3243,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3254,7 +3258,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3264,73 +3268,77 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>JCMB_3211 - Teaching Studio</t>
+          <t>JCMB_3217 - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>820</v>
+        <v>967</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mathematical Education</t>
+          <t>Probability, Measure &amp; Finance</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATH10010</t>
+          <t>MATH10024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MATH4 Maths Education - Lecture</t>
+          <t>MATH4 Probability, Measure &amp; Finance - Workshop</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>*Lecture</t>
+          <t>*Workshop</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H38" t="n">
-        <v>52</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>* SEM 2 - Even weeks only</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>9-16</t>
+          <t>27, 29, 32, 34, 36</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3340,53 +3348,53 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>JCMB_1501</t>
+          <t>JCMB_4325C - Teaching Studio</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>967</v>
+        <v>1084</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Probability, Measure &amp; Finance</t>
+          <t>Statistical Case Studies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATH10024</t>
+          <t>MATH10102</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MATH4 Probability, Measure &amp; Finance - Workshop</t>
+          <t>MATH4 Statistical Case Studies - Lecture</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>40</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>* SEM 2 - Even weeks only</t>
+          <t>* SEM 2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>27, 29, 32, 34, 36</t>
+          <t>26-30, 32-37</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3395,78 +3403,78 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>JCMB_4325C - Teaching Studio</t>
+          <t>MH_G.31</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>968</v>
+        <v>1083</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Probability, Measure &amp; Finance</t>
+          <t>Statistical Case Studies</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MATH10024</t>
+          <t>MATH10102</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MATH4 Probability, Measure &amp; Finance - Workshop</t>
+          <t>MATH4 Statistical Case Studies - Lecture</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>*Workshop</t>
+          <t>*Lecture</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>40</v>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>* SEM 1 - Even weeks only</t>
+          <t>* SEM 1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10, 12, 14, 16, 18</t>
+          <t>9-19</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3475,53 +3483,53 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>JCMB</t>
+          <t>*King's Buildings</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>JCMB_3217 - Teaching Studio</t>
+          <t>JCMB_5327</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1083</v>
+        <v>200</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Statistical Case Studies</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MATH10102</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MATH4 Statistical Case Studies - Lecture</t>
+          <t>MATHO Credit Scoring - Lecture</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3530,27 +3538,23 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="H41" t="n">
-        <v>44</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>* SEM 1</t>
-        </is>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9-19</t>
+          <t>26-28, 34</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3560,48 +3564,48 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>JCMB_5327</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1084</v>
+        <v>201</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Statistical Case Studies</t>
+          <t>Credit Scoring</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MATH10102</t>
+          <t>MATH11148</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MATH4 Statistical Case Studies - Lecture</t>
+          <t>MATHO Credit Scoring - Lecture</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3610,37 +3614,33 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="H42" t="n">
-        <v>44</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>* SEM 2</t>
-        </is>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>26-30, 32-37</t>
+          <t>26-29, 33-34</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3650,17 +3650,17 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>*King's Buildings</t>
+          <t>JCMB</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MH_G.31</t>
+          <t>JCMB_Lecture Theatre A</t>
         </is>
       </c>
     </row>
